--- a/TestReportOutput.xlsx
+++ b/TestReportOutput.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="F 20.04" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -107,9 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -142,6 +143,13 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -300,133 +308,424 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" bestFit="1" width="71.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="48.5703125" customWidth="1" style="1"/>
-    <col min="5" max="5" bestFit="1" width="22.7109375" customWidth="1" style="1"/>
-    <col min="6" max="6" bestFit="1" width="16" customWidth="1" style="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1" style="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1" style="1"/>
-    <col min="10" max="10" bestFit="1" width="24.7109375" customWidth="1" style="1"/>
-    <col min="11" max="11" bestFit="1" width="89.5703125" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="64.5" customHeight="1" s="1" customFormat="1">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="64.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
@@ -646,214 +945,214 @@
       <c r="C7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21" t="s">
+      <c r="F7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="63" customHeight="1" s="1" customFormat="1">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="63" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="63" customHeight="1" s="1" customFormat="1">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="63" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="21" customHeight="1" s="1" customFormat="1">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="35">
         <v>100</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="35">
         <v>200</v>
       </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="34" t="s">
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="42" customHeight="1" s="1" customFormat="1">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="35">
         <v>600</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="35">
         <v>500</v>
       </c>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="34" t="s">
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="4">
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestReportOutput.xlsx
+++ b/TestReportOutput.xlsx
@@ -146,6 +146,7 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF00B050"/>
       <name val="Verdana"/>
@@ -708,7 +709,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E11" sqref="E11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
